--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2588255.603098532</v>
+        <v>2585688.861885838</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205901</v>
+        <v>9964927.035287932</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431075</v>
+        <v>430763.7823717228</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9357036.226895336</v>
+        <v>9357187.960308043</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>258.5881339165305</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.85876175969196</v>
+        <v>15.91242278797893</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>363.5687190723342</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>126.6305324976337</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>68.43141783824939</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.220846587376188</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>294.5526453824723</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>33.21446231455224</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>172.2075379833799</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>61.91713515029347</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>64.44601915224106</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1585,13 +1585,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323832</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>95.29757221403122</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.8662883387979</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081956</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561454</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>81.37259901119562</v>
+        <v>102.1854574632529</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108349</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081956</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561454</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>89.53408223745275</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>64.44601915224105</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108349</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081956</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561454</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>41.12752302841189</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>64.44601915223045</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108349</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127575</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081956</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561454</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T27" t="n">
         <v>188.3907690366107</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>105.3798824585225</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>64.44601915223967</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108349</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081956</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561454</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T30" t="n">
         <v>188.3907690366107</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>81.37259901118279</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>81.37259901119425</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108349</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>64.44601915222822</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108398</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S34" t="n">
         <v>181.3384883584591</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>227.4416075558221</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>2.762447262065027</v>
       </c>
       <c r="E37" t="n">
-        <v>81.37259901118978</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>21.39379534248055</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>75.70303989011293</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>210.177480908705</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>34.89507300046394</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428202</v>
+        <v>74.91313796759346</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.753525949915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.753525949915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1624.753525949915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.753525949915</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4419,7 +4419,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.0282177315061</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="C4" t="n">
-        <v>280.0282177315061</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="Y4" t="n">
-        <v>280.0282177315061</v>
+        <v>70.0161361516563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>769.2477369710693</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>769.2477369710693</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2338.033285077397</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2338.033285077397</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2338.033285077397</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8327295799424</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8327295799424</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8327295799424</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>829.562656169633</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="C8" t="n">
-        <v>460.6001392292213</v>
+        <v>911.5940398628916</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4814,40 +4814,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2663.599129084331</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2332.53624174076</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>1979.767586470646</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X8" t="n">
-        <v>1606.301828209567</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1216.162496233755</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>524.7650569960363</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5027,40 +5027,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5075,16 +5075,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668126</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.737405310565</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.755759562693</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.755759562693</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.0957149476028</v>
+        <v>723.0852658456135</v>
       </c>
       <c r="C13" t="n">
-        <v>326.1595320196959</v>
+        <v>554.1490829177067</v>
       </c>
       <c r="D13" t="n">
-        <v>326.1595320196959</v>
+        <v>491.6065221598345</v>
       </c>
       <c r="E13" t="n">
-        <v>326.1595320196959</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F13" t="n">
-        <v>326.1595320196959</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G13" t="n">
-        <v>158.9453371942748</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819383</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5367589213727</v>
+        <v>1125.526309819383</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7441797778425</v>
+        <v>904.7337306758533</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5264,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5355,28 +5355,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310565</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.755759562693</v>
+        <v>1476.806668636444</v>
       </c>
       <c r="N15" t="n">
-        <v>2276.85172296203</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>804.6189678792534</v>
+        <v>869.9011758612336</v>
       </c>
       <c r="C16" t="n">
-        <v>635.6827849513465</v>
+        <v>700.9649929333267</v>
       </c>
       <c r="D16" t="n">
-        <v>485.5661455390108</v>
+        <v>550.8483535209909</v>
       </c>
       <c r="E16" t="n">
-        <v>485.5661455390108</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F16" t="n">
-        <v>485.5661455390108</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135896</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.52630981939</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="X16" t="n">
-        <v>1125.52630981939</v>
+        <v>1186.953928958331</v>
       </c>
       <c r="Y16" t="n">
-        <v>986.2674327094932</v>
+        <v>966.1613498148005</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5501,64 +5501,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963563</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H17" t="n">
+        <v>93.84834815160693</v>
+      </c>
+      <c r="I17" t="n">
         <v>93.84834815160703</v>
       </c>
-      <c r="I17" t="n">
-        <v>93.84834815160725</v>
-      </c>
       <c r="J17" t="n">
-        <v>373.3442236507207</v>
+        <v>373.3442236507203</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384034</v>
+        <v>842.9746074384025</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944178</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883218</v>
+        <v>2183.498949883216</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800323</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612966</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779758</v>
       </c>
       <c r="K18" t="n">
-        <v>302.0892292003537</v>
+        <v>573.0441050413349</v>
       </c>
       <c r="L18" t="n">
-        <v>792.8215620441057</v>
+        <v>573.0441050413349</v>
       </c>
       <c r="M18" t="n">
-        <v>1384.839916296234</v>
+        <v>1165.062459293463</v>
       </c>
       <c r="N18" t="n">
-        <v>2006.935879695571</v>
+        <v>1776.374605710324</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149476014</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196959</v>
+        <v>495.0957149476014</v>
       </c>
       <c r="D19" t="n">
-        <v>176.0428926073602</v>
+        <v>344.9790755352657</v>
       </c>
       <c r="E19" t="n">
-        <v>176.0428926073602</v>
+        <v>197.0659819528726</v>
       </c>
       <c r="F19" t="n">
-        <v>176.0428926073602</v>
+        <v>197.0659819528726</v>
       </c>
       <c r="G19" t="n">
         <v>93.84834815160703</v>
@@ -5671,52 +5671,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117249</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948594</v>
       </c>
       <c r="M19" t="n">
         <v>1239.450608139319</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931026</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294197</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033127</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062236</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856349</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819389</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213713</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778412</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5738,40 +5738,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160691</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507206</v>
+        <v>373.3442236507203</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384025</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909294972</v>
+        <v>1462.494387944178</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.29847123401</v>
+        <v>2183.498949883216</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151117</v>
+        <v>2920.783927800323</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.645964259462</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.95191294681</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052818</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580352</v>
@@ -5783,19 +5783,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160704</v>
+        <v>424.3570907149661</v>
       </c>
       <c r="L21" t="n">
-        <v>584.580680995359</v>
+        <v>915.0894235587177</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.599035247487</v>
+        <v>1507.107777810846</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284247</v>
+        <v>2098.902632035779</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284443</v>
+        <v>2098.902632035779</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710519</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R21" t="n">
         <v>2553.812354695766</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149476014</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196959</v>
+        <v>326.1595320196946</v>
       </c>
       <c r="D22" t="n">
-        <v>326.1595320196959</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="E22" t="n">
-        <v>326.1595320196959</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F22" t="n">
-        <v>326.1595320196959</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G22" t="n">
-        <v>158.9453371942748</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117249</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948594</v>
       </c>
       <c r="M22" t="n">
         <v>1239.450608139319</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931026</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294197</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033127</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062236</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856349</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819389</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213713</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778412</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127638</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507203</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384025</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944178</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883205</v>
+        <v>2234.29847123401</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.58344915113</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6042,61 +6042,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F24" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K24" t="n">
-        <v>424.3570907149644</v>
+        <v>424.3570907149661</v>
       </c>
       <c r="L24" t="n">
-        <v>424.3570907149644</v>
+        <v>915.0894235587177</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849206</v>
+        <v>1507.107777810846</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284254</v>
+        <v>1741.048401476414</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284447</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710521</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
         <v>2016.877442379908</v>
@@ -6108,7 +6108,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.876178449477</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149475921</v>
+        <v>676.7441797778412</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196852</v>
+        <v>507.8079968499343</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196852</v>
+        <v>507.8079968499343</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196852</v>
+        <v>359.8949032675412</v>
       </c>
       <c r="F25" t="n">
-        <v>326.1595320196852</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G25" t="n">
-        <v>158.9453371942641</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411604</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117249</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948594</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931026</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294197</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033118</v>
+        <v>2178.382964033127</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.7041817475</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062227</v>
+        <v>1669.627968062236</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.94347985634</v>
+        <v>1414.943479856349</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819379</v>
+        <v>1125.526309819389</v>
       </c>
       <c r="X25" t="n">
-        <v>897.536758921362</v>
+        <v>897.5367589213713</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778318</v>
+        <v>676.7441797778412</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
-        <v>380.275713812764</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160787</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160715</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507183</v>
+        <v>373.3442236507204</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074383975</v>
+        <v>842.9746074384027</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944169</v>
+        <v>1513.293909294973</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883203</v>
+        <v>2234.298471234011</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151131</v>
+        <v>2971.583449151118</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610266</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
         <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6279,61 +6279,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C27" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D27" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E27" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F27" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G27" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034532</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034532</v>
       </c>
       <c r="L27" t="n">
-        <v>142.6767696327976</v>
+        <v>732.2286627472049</v>
       </c>
       <c r="M27" t="n">
-        <v>734.6951238849225</v>
+        <v>1118.952438077077</v>
       </c>
       <c r="N27" t="n">
-        <v>1356.791087284256</v>
+        <v>1741.048401476414</v>
       </c>
       <c r="O27" t="n">
-        <v>1903.667562284448</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.251080710521</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S27" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U27" t="n">
         <v>2016.877442379908</v>
@@ -6345,7 +6345,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.876178449477</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149475898</v>
+        <v>495.0957149476014</v>
       </c>
       <c r="C28" t="n">
-        <v>495.0957149475898</v>
+        <v>326.1595320196946</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6513892319105</v>
+        <v>326.1595320196946</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7382956495174</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F28" t="n">
-        <v>93.84834815160706</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411603</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117249</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948594</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931026</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294186</v>
+        <v>2361.553154294197</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033116</v>
+        <v>2178.382964033127</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747498</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062225</v>
+        <v>1669.627968062236</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856338</v>
+        <v>1414.943479856349</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819377</v>
+        <v>1125.526309819389</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213597</v>
+        <v>897.5367589213713</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778296</v>
+        <v>676.7441797778412</v>
       </c>
     </row>
     <row r="29">
@@ -6452,43 +6452,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160626</v>
+        <v>93.84834815160715</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507175</v>
+        <v>373.3442236507204</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074383968</v>
+        <v>842.9746074384027</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944168</v>
+        <v>1462.494387944178</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883202</v>
+        <v>2183.498949883216</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800304</v>
+        <v>2971.583449151118</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259439</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946784</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052789</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C30" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D30" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E30" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F30" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G30" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
         <v>93.84834815160704</v>
@@ -6543,34 +6543,34 @@
         <v>93.84834815160704</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160704</v>
+        <v>424.3570907149661</v>
       </c>
       <c r="L30" t="n">
-        <v>584.580680995356</v>
+        <v>915.0894235587178</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.599035247481</v>
+        <v>915.0894235587178</v>
       </c>
       <c r="N30" t="n">
-        <v>1798.694998646814</v>
+        <v>1537.185386958055</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.571473647006</v>
+        <v>2084.061861958249</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695767</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S30" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U30" t="n">
         <v>2016.877442379908</v>
@@ -6582,7 +6582,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y30" t="n">
         <v>1111.876178449477</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149475898</v>
+        <v>495.0957149476014</v>
       </c>
       <c r="C31" t="n">
-        <v>326.159532019683</v>
+        <v>326.1595320196946</v>
       </c>
       <c r="D31" t="n">
-        <v>176.0428926073472</v>
+        <v>176.0428926073588</v>
       </c>
       <c r="E31" t="n">
-        <v>93.84834815160704</v>
+        <v>176.0428926073588</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160704</v>
+        <v>176.0428926073588</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160704</v>
+        <v>176.0428926073588</v>
       </c>
       <c r="H31" t="n">
         <v>93.84834815160704</v>
@@ -6619,52 +6619,52 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411603</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117249</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948594</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931026</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294186</v>
+        <v>2361.553154294197</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033116</v>
+        <v>2178.382964033127</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747498</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062225</v>
+        <v>1669.627968062236</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856338</v>
+        <v>1414.943479856349</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819377</v>
+        <v>1125.526309819389</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213597</v>
+        <v>897.5367589213713</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778296</v>
+        <v>676.7441797778412</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E32" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127638</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160626</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507175</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074383968</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294994</v>
+        <v>1513.293909294992</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234028</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N32" t="n">
         <v>2971.58344915113</v>
@@ -6716,34 +6716,34 @@
         <v>3654.445485610265</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.75143429761</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.7211392683895</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K33" t="n">
-        <v>424.3570907149641</v>
+        <v>424.3570907149644</v>
       </c>
       <c r="L33" t="n">
-        <v>915.0894235587131</v>
+        <v>915.0894235587139</v>
       </c>
       <c r="M33" t="n">
-        <v>915.0894235587131</v>
+        <v>1507.107777810839</v>
       </c>
       <c r="N33" t="n">
-        <v>1537.185386958046</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="O33" t="n">
-        <v>2084.061861958238</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.251080710521</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695767</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149475898</v>
+        <v>554.7738874534193</v>
       </c>
       <c r="C34" t="n">
-        <v>326.159532019683</v>
+        <v>385.8377045255124</v>
       </c>
       <c r="D34" t="n">
-        <v>326.159532019683</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="E34" t="n">
-        <v>326.159532019683</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="F34" t="n">
-        <v>326.159532019683</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9453371942618</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411603</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M34" t="n">
         <v>1239.450608139314</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294186</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033116</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747498</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062225</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.943479856338</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W34" t="n">
-        <v>1125.526309819377</v>
+        <v>1185.204482325207</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5367589213597</v>
+        <v>957.2149314271892</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778296</v>
+        <v>736.4223522836591</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>794.2588208963555</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
         <v>93.84834815160703</v>
@@ -6950,13 +6950,13 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
@@ -7011,31 +7011,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4963299034529</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310563</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.75575956269</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="N36" t="n">
-        <v>1903.667562284444</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149475969</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>326.15953201969</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>176.0428926073543</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="E37" t="n">
-        <v>93.84834815160703</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F37" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
@@ -7111,34 +7111,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782256</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335691</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294193</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033123</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747505</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062232</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856345</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819384</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213668</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778366</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7166,34 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7248,28 +7248,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="K39" t="n">
-        <v>424.3570907149658</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="L39" t="n">
-        <v>424.3570907149658</v>
+        <v>585.6197135698817</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.375444967093</v>
+        <v>1177.63806782201</v>
       </c>
       <c r="N39" t="n">
-        <v>1638.471408366429</v>
+        <v>1799.734031221347</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284444</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.7042115721531</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7680286442462</v>
+        <v>473.4858206622662</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6513892319105</v>
+        <v>323.3691812499304</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7382956495174</v>
+        <v>323.3691812499304</v>
       </c>
       <c r="F40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117227</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948573</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R40" t="n">
         <v>2361.553154294196</v>
@@ -7363,19 +7363,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.236464686788</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.551976480901</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.13480644394</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.145255545923</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3526764023928</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580351</v>
@@ -7488,28 +7488,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K42" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L42" t="n">
-        <v>424.3570907149658</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.375444967093</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N42" t="n">
-        <v>1638.471408366429</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.8714428665047</v>
+        <v>680.6407456058158</v>
       </c>
       <c r="C43" t="n">
-        <v>402.9352599385978</v>
+        <v>680.6407456058158</v>
       </c>
       <c r="D43" t="n">
-        <v>402.9352599385978</v>
+        <v>530.5241061934801</v>
       </c>
       <c r="E43" t="n">
-        <v>402.9352599385978</v>
+        <v>382.6110126110869</v>
       </c>
       <c r="F43" t="n">
-        <v>402.9352599385978</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G43" t="n">
         <v>235.7210651131766</v>
@@ -7567,52 +7567,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X43" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.5199076967444</v>
+        <v>862.2892104360556</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399024</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556096</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148063</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171644</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814816</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003546</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391034</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.8059044336479</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2713464605329</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160701</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K45" t="n">
-        <v>119.3219818740134</v>
+        <v>242.535362477976</v>
       </c>
       <c r="L45" t="n">
-        <v>119.3219818740134</v>
+        <v>733.267695321728</v>
       </c>
       <c r="M45" t="n">
-        <v>716.7004695005653</v>
+        <v>1325.286049573856</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.298433055172</v>
+        <v>1325.286049573856</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.208163294459</v>
+        <v>1872.162524574052</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2291.746043000128</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372036</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166503</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437067</v>
+        <v>715.8882940911329</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9491029157998</v>
+        <v>546.952111163226</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9491029157998</v>
+        <v>546.952111163226</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9491029157998</v>
+        <v>399.0390175808329</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9491029157998</v>
+        <v>252.1490700829226</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7530036306798</v>
+        <v>252.1490700829226</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834098</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591203</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614144</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958342</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752455</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715494</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174766</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5337506739464</v>
+        <v>897.5367589213727</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714827</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,7 +8459,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>51.31264782908511</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>51.31264782908374</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782908693</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>51.31264782908522</v>
       </c>
       <c r="N23" t="n">
-        <v>51.31264782911239</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>51.31264782908602</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>51.31264782911717</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>51.31264782908625</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782911694</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>51.31264782911705</v>
+        <v>51.31264782911217</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>51.31264782908278</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>86.69833786791889</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.00797063971282</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>84.53440796790608</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.71836501329693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>84.16945386597131</v>
+        <v>63.35659541391405</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>59.08139078075961</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>76.00797063971284</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>104.2935249945193</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>76.00797063972352</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>43.23559055968983</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>81.9879434943295</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.8045767444093</v>
+        <v>81.80457674440898</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>65.06136363538639</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.453989791954</v>
+        <v>59.08139078075963</v>
       </c>
       <c r="I31" t="n">
-        <v>81.8045767444093</v>
+        <v>81.80457674440898</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>76.00797063972576</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.8045767444093</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>59.08139078076888</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.8530257561473</v>
       </c>
       <c r="E37" t="n">
-        <v>65.06136363537939</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
@@ -25330,7 +25330,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>145.8530257561473</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>210.4824116583075</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>76.00797063971547</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>183.6895803516309</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194184</v>
+        <v>65.54085182436043</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791237.5424528423</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
@@ -26329,31 +26329,31 @@
         <v>625179.3072668832</v>
       </c>
       <c r="H2" t="n">
-        <v>625179.3072668836</v>
+        <v>625179.3072668834</v>
       </c>
       <c r="I2" t="n">
-        <v>625179.307266883</v>
+        <v>625179.3072668833</v>
       </c>
       <c r="J2" t="n">
+        <v>625179.3072668831</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625179.3072668833</v>
+      </c>
+      <c r="L2" t="n">
         <v>625179.3072668832</v>
       </c>
-      <c r="K2" t="n">
-        <v>625179.3072668829</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625179.307266883</v>
-      </c>
       <c r="M2" t="n">
-        <v>625179.3072668831</v>
+        <v>625179.3072668833</v>
       </c>
       <c r="N2" t="n">
-        <v>625179.3072668832</v>
+        <v>625179.3072668834</v>
       </c>
       <c r="O2" t="n">
-        <v>625179.3072668833</v>
+        <v>625179.3072668837</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625179.3072668834</v>
       </c>
     </row>
     <row r="3">
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545134</v>
+        <v>936509.6654545121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.071203071973287e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.612216003738771e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925923</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-1.910181363540081e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901407</v>
+        <v>124307.2113901399</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.098714619729435e-09</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>5781.971894855114</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5781.971894855116</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5781.971894855034</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5781.97189485506</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5781.971894855035</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5781.971894855047</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5781.971894855051</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5781.971894855411</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5781.971894855164</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5781.971894855</v>
+      </c>
+      <c r="O4" t="n">
         <v>5781.971894855005</v>
       </c>
-      <c r="F4" t="n">
-        <v>5781.971894855006</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5781.971894855036</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5781.971894855015</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5781.971894855415</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5781.971894855481</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5781.971894855477</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5781.971894855478</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5781.971894855114</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5781.971894855116</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5781.971894855114</v>
-      </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5781.971894855002</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
         <v>100930.0394572386</v>
@@ -26488,28 +26488,28 @@
         <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="L5" t="n">
         <v>100930.0394572385</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="K5" t="n">
-        <v>100930.0394572384</v>
-      </c>
-      <c r="L5" t="n">
-        <v>100930.0394572384</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237584.0915608659</v>
+        <v>-237584.0915608657</v>
       </c>
       <c r="C6" t="n">
-        <v>352383.7876536788</v>
+        <v>352383.787653679</v>
       </c>
       <c r="D6" t="n">
-        <v>352383.7876536788</v>
+        <v>352383.7876536787</v>
       </c>
       <c r="E6" t="n">
-        <v>-418042.3695397237</v>
+        <v>-418078.2665215867</v>
       </c>
       <c r="F6" t="n">
-        <v>518467.2959147898</v>
+        <v>518431.3989329255</v>
       </c>
       <c r="G6" t="n">
-        <v>518467.2959147896</v>
+        <v>518431.3989329246</v>
       </c>
       <c r="H6" t="n">
-        <v>518467.29591479</v>
+        <v>518431.3989329255</v>
       </c>
       <c r="I6" t="n">
-        <v>518467.2959147934</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="J6" t="n">
-        <v>342044.076722197</v>
+        <v>342008.1797403322</v>
       </c>
       <c r="K6" t="n">
-        <v>518467.2959147889</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="L6" t="n">
-        <v>518467.295914789</v>
+        <v>518431.3989329286</v>
       </c>
       <c r="M6" t="n">
-        <v>394160.0845246488</v>
+        <v>394124.1875427854</v>
       </c>
       <c r="N6" t="n">
-        <v>518467.2959147895</v>
+        <v>518431.3989329245</v>
       </c>
       <c r="O6" t="n">
-        <v>518467.2959147897</v>
+        <v>518431.3989329258</v>
       </c>
       <c r="P6" t="n">
-        <v>512712.2790804618</v>
+        <v>518431.3989329255</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1358.041048716387</v>
@@ -26756,28 +26756,28 @@
         <v>1358.041048716387</v>
       </c>
       <c r="I3" t="n">
+        <v>1358.041048716387</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1358.041048716387</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1358.041048716387</v>
+      </c>
+      <c r="L3" t="n">
         <v>1358.041048716382</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1358.041048716381</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1358.041048716381</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1358.041048716381</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26966,40 +26966,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844993005</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.303406204717856e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-3.805119339413021e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>5.002220859751105e-12</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.817079140532</v>
+        <v>498.8170791405316</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>123.3422361557313</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>59.7567112585204</v>
+        <v>132.7030502302334</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.36165099992758</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>89.81778786002407</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>183.7062254855786</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647186</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>60.13039623821066</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>218.0097051937371</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>52.82756747470438</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H35" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.677937203841219e-13</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>588.036246134842</v>
       </c>
       <c r="O12" t="n">
-        <v>394.0223077997468</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504309</v>
+        <v>560.385815059272</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169052</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377429</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122286</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704061</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874068</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830435</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364269</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293314</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229614</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086957</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687528</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148611</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987165</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665721</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901942</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540907</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088192</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173582</v>
       </c>
       <c r="K18" t="n">
-        <v>348.1857632660223</v>
+        <v>471.6886536848227</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504305</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927647</v>
+        <v>748.8287286660218</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426213</v>
+        <v>694.996724242621</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286954</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862163</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291844</v>
       </c>
       <c r="H19" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548569</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284931</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273334</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900888</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640621</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265024</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416877</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465965</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282426</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561744</v>
       </c>
       <c r="R19" t="n">
         <v>110.112639786086</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851331</v>
       </c>
       <c r="T19" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704644</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377429</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122286</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704061</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J20" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874068</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830435</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364269</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293314</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229614</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086957</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687528</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148611</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987165</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665721</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901942</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540907</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088192</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848227</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745728</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504305</v>
       </c>
       <c r="N21" t="n">
-        <v>313.3538858578384</v>
+        <v>729.1142921085188</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426213</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982457</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862163</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291844</v>
       </c>
       <c r="H22" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548569</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284931</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273334</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900888</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640621</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265024</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416877</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465965</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282426</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561744</v>
       </c>
       <c r="R22" t="n">
         <v>110.112639786086</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851331</v>
       </c>
       <c r="T22" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704644</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377429</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122286</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704053</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J23" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874068</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830435</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364269</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293314</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229614</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086957</v>
       </c>
       <c r="P23" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687528</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148611</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987165</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665721</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901942</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540907</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088192</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>471.688653684821</v>
+        <v>471.6886536848227</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745728</v>
       </c>
       <c r="M24" t="n">
-        <v>455.6067946997518</v>
+        <v>740.1323715504305</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927615</v>
+        <v>367.645372351584</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426184</v>
+        <v>694.996724242621</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982436</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286941</v>
+        <v>372.8719498286954</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862163</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291844</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548569</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284931</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273334</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900888</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640621</v>
       </c>
       <c r="M25" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265024</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416877</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465965</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282426</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561744</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851331</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704644</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377429</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122286</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704051</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874068</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830404</v>
+        <v>694.4639760830435</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364269</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293314</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229614</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086957</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687528</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148611</v>
       </c>
       <c r="R26" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987165</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T26" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665721</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.4367569201901942</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540907</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088192</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173582</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>187.8760176396626</v>
+        <v>634.2436048745728</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504274</v>
+        <v>532.7641100127985</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927642</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426179</v>
+        <v>694.996724242621</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982433</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286938</v>
+        <v>372.8719498286954</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862163</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291844</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548569</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284931</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273334</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900888</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640621</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265024</v>
       </c>
       <c r="N28" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416877</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465965</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282426</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561744</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860855</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851331</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704644</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377429</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122286</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704051</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874068</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830404</v>
+        <v>694.4639760830435</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364269</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293314</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229614</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086957</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687528</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148611</v>
       </c>
       <c r="R29" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987165</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T29" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665721</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.4367569201901942</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540907</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088192</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848227</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745701</v>
+        <v>634.2436048745728</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504274</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927642</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426179</v>
+        <v>694.996724242621</v>
       </c>
       <c r="P30" t="n">
-        <v>344.3187317060075</v>
+        <v>339.8966443015618</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286954</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862163</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291844</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548569</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284931</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273334</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900888</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640621</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265024</v>
       </c>
       <c r="N31" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416877</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465965</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282426</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561744</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860855</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851331</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704644</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874047</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830404</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687494</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R32" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T32" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H33" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848206</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745701</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927609</v>
+        <v>496.2241163658562</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426179</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>375.5796788812828</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286938</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S33" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265007</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N34" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
@@ -33743,13 +33743,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>382.7677754386397</v>
+        <v>391.6330708361149</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
         <v>557.7961431982453</v>
@@ -33758,7 +33758,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S36" t="n">
         <v>54.2575834086216</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O39" t="n">
-        <v>410.4711473919336</v>
+        <v>671.4013449385574</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>410.4711473919336</v>
+        <v>358.3392732200391</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>163.5723821283049</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>369.0121856635239</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492237</v>
@@ -35252,7 +35252,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664402</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>456.6945340515088</v>
       </c>
       <c r="O12" t="n">
-        <v>251.4260633553024</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.732300926371</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284126</v>
+        <v>418.2517811372537</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>279.7582138724608</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607205</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380629</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664397</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020587</v>
       </c>
       <c r="N17" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263705</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870094</v>
+        <v>741.0722806160941</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134833</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404115</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845844</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.049527853053164</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069153</v>
       </c>
       <c r="K18" t="n">
-        <v>210.3443242916633</v>
+        <v>333.8472147104637</v>
       </c>
       <c r="L18" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284122</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094314</v>
+        <v>617.4870165826885</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981765</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426739</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066061</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642061</v>
+        <v>262.251239364206</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243782</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883432</v>
+        <v>423.464234388343</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209163</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931361</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044801</v>
+        <v>118.90215510448</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607205</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380629</v>
       </c>
       <c r="L20" t="n">
-        <v>677.0902038955239</v>
+        <v>625.7775560664397</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020587</v>
       </c>
       <c r="N20" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263705</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870094</v>
+        <v>689.759632787009</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134833</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404115</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136713</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104637</v>
       </c>
       <c r="L21" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946987</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284122</v>
       </c>
       <c r="N21" t="n">
-        <v>182.0121737745051</v>
+        <v>597.7725800251856</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981769</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839154</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.68303457970751</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066061</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642061</v>
+        <v>262.251239364206</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243782</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883432</v>
+        <v>423.464234388343</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209163</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931361</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044801</v>
+        <v>118.90215510448</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607205</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380629</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664397</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020552</v>
+        <v>779.6000841311439</v>
       </c>
       <c r="N23" t="n">
-        <v>796.0449487554793</v>
+        <v>744.7323009263705</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870057</v>
+        <v>689.759632787009</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134833</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404115</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845844</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>333.847214710462</v>
+        <v>333.8472147104637</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>495.6892250946987</v>
       </c>
       <c r="M24" t="n">
-        <v>313.4727607777335</v>
+        <v>597.9983376284122</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094282</v>
+        <v>236.3036602682507</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981765</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839134</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426726</v>
+        <v>232.8901757426739</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.68303457970751</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066061</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642048</v>
+        <v>262.251239364206</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243782</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883416</v>
+        <v>423.464234388343</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209163</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P25" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931361</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044792</v>
+        <v>118.90215510448</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-4.21441058706702e-13</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607205</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380629</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664359</v>
+        <v>677.0902038955257</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020545</v>
+        <v>728.2874363020587</v>
       </c>
       <c r="N26" t="n">
-        <v>796.0449487554833</v>
+        <v>744.7323009263705</v>
       </c>
       <c r="O26" t="n">
-        <v>689.759632787005</v>
+        <v>689.759632787009</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134798</v>
+        <v>553.8443926134833</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404115</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845829</v>
+        <v>127.3573607845844</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069153</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>49.3216378597884</v>
+        <v>495.6892250946987</v>
       </c>
       <c r="M27" t="n">
-        <v>597.998337628409</v>
+        <v>390.6300760907801</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094309</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981735</v>
+        <v>552.4004797981765</v>
       </c>
       <c r="P27" t="n">
-        <v>423.821735783913</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426723</v>
+        <v>232.8901757426739</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970751</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066061</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642047</v>
+        <v>262.251239364206</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243766</v>
+        <v>391.6786041243782</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883413</v>
+        <v>423.464234388343</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209163</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931361</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044791</v>
+        <v>118.90215510448</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607205</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380629</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664359</v>
+        <v>625.7775560664397</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020545</v>
+        <v>728.2874363020587</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263662</v>
+        <v>796.0449487554567</v>
       </c>
       <c r="O29" t="n">
-        <v>689.759632787005</v>
+        <v>689.759632787009</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134798</v>
+        <v>553.8443926134833</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404115</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136998</v>
+        <v>127.3573607845844</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104637</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946959</v>
+        <v>495.6892250946987</v>
       </c>
       <c r="M30" t="n">
-        <v>597.998337628409</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094309</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981735</v>
+        <v>552.4004797981765</v>
       </c>
       <c r="P30" t="n">
-        <v>210.3443242916772</v>
+        <v>205.9222368872316</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426739</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970751</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066061</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642047</v>
+        <v>262.251239364206</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243766</v>
+        <v>391.6786041243782</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883413</v>
+        <v>423.464234388343</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209163</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931361</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044791</v>
+        <v>118.90215510448</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L32" t="n">
-        <v>677.0902038955529</v>
+        <v>677.0902038955487</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020545</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263662</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O32" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134798</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845829</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104616</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946959</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094276</v>
+        <v>364.8824042825229</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981735</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>241.6052714669526</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426723</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243766</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931348</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P35" t="n">
         <v>553.8443926134828</v>
@@ -37327,7 +37327,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
@@ -37391,13 +37391,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>251.4260633553063</v>
+        <v>260.2913587527817</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
         <v>423.8217357839151</v>
@@ -37406,7 +37406,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931327</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
         <v>118.9021551044798</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K38" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O39" t="n">
-        <v>267.8749029474891</v>
+        <v>528.8051004941129</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642036</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>267.8749029474891</v>
+        <v>215.7430287755947</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>525.686772867146</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>25.73094315394588</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>229.0304115775024</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
